--- a/full_report.xlsx
+++ b/full_report.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0276635960092226</v>
+        <v>0.04988156053116839</v>
       </c>
       <c r="C2" t="n">
         <v>22.79333985730748</v>
@@ -504,14 +504,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Temp</t>
+          <t>Scr</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02302852762247796</v>
+        <v>0.008591778378423698</v>
       </c>
       <c r="C3" t="n">
-        <v>11.21678894613339</v>
+        <v>4.427368842684381</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -527,14 +527,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Scr</t>
+          <t>kHmin2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009167754257080385</v>
+        <v>0.006806097795230037</v>
       </c>
       <c r="C4" t="n">
-        <v>4.427368842684381</v>
+        <v>9.85178360731633</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -550,14 +550,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>kHmin2</t>
+          <t>kHmin3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006045949848677612</v>
+        <v>0.003883989040354552</v>
       </c>
       <c r="C5" t="n">
-        <v>9.85178360731633</v>
+        <v>3.573965166363624</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -573,14 +573,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sdren</t>
+          <t>Lgs</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002684447150336733</v>
+        <v>0.001809283197291522</v>
       </c>
       <c r="C6" t="n">
-        <v>4.416630334752787</v>
+        <v>3.665033646297578</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -596,14 +596,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>kHmin3</t>
+          <t>Sdren</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002086223530541254</v>
+        <v>0.001513218621148649</v>
       </c>
       <c r="C7" t="n">
-        <v>3.573965166363624</v>
+        <v>4.416630334752787</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -619,14 +619,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lgs</t>
+          <t>kHmin1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001915591698903862</v>
+        <v>-0.0002532864999729045</v>
       </c>
       <c r="C8" t="n">
-        <v>3.665033646297578</v>
+        <v>1.644187220269054</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -642,14 +642,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>kHmin1</t>
+          <t>minL3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0002148709039858199</v>
+        <v>-0.0005499185905322945</v>
       </c>
       <c r="C9" t="n">
-        <v>1.644187220269054</v>
+        <v>1.525270531450531</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -665,14 +665,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>minL1</t>
+          <t>Temp</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0004133689417114783</v>
+        <v>-0.0006687701505313059</v>
       </c>
       <c r="C10" t="n">
-        <v>5.189552583410101</v>
+        <v>11.21678894613339</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0004697105634878684</v>
+        <v>-0.001117041699008647</v>
       </c>
       <c r="C11" t="n">
         <v>1.371175346789749</v>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0005304007874930572</v>
+        <v>-0.002269472162933483</v>
       </c>
       <c r="C12" t="n">
         <v>2.073586861136286</v>
@@ -734,14 +734,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>minL3</t>
+          <t>minLgwc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0009652154547794334</v>
+        <v>-0.003035368861834009</v>
       </c>
       <c r="C13" t="n">
-        <v>1.525270531450531</v>
+        <v>5.937946919704867</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -757,14 +757,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>minL2</t>
+          <t>minL1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.003399932036740327</v>
+        <v>-0.004009490800733939</v>
       </c>
       <c r="C14" t="n">
-        <v>5.78967424417615</v>
+        <v>5.189552583410101</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.003832144285941652</v>
+        <v>-0.004495361210949433</v>
       </c>
       <c r="C15" t="n">
         <v>0.9614548580233024</v>
@@ -803,14 +803,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>minLgwc</t>
+          <t>hgvk</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.004299098457067596</v>
+        <v>-0.005036944908377583</v>
       </c>
       <c r="C16" t="n">
-        <v>5.937946919704867</v>
+        <v>2.871587488960705</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -826,14 +826,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hgvk</t>
+          <t>h_all</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.005223581885086615</v>
+        <v>-0.006586467948619223</v>
       </c>
       <c r="C17" t="n">
-        <v>2.871587488960705</v>
+        <v>4.035339173487414</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006618980773152039</v>
+        <v>-0.007923584068728128</v>
       </c>
       <c r="C18" t="n">
         <v>2.929950931995436</v>
@@ -872,14 +872,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>h_all</t>
+          <t>ntg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007606162534785144</v>
+        <v>-0.00975574578473567</v>
       </c>
       <c r="C19" t="n">
-        <v>4.035339173487414</v>
+        <v>5.725363439740828</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -895,14 +895,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ntg</t>
+          <t>minL2</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.009821089772715941</v>
+        <v>-0.01241549313312857</v>
       </c>
       <c r="C20" t="n">
-        <v>5.725363439740828</v>
+        <v>5.78967424417615</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3079,13 +3079,13 @@
         <v>0.001070256327974882</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>45705.84952354226</v>
+        <v>45705.89314254733</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45705.84976319802</v>
+        <v>45705.89335509254</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.0002396557638888889</v>
+        <v>0.0002125452199074074</v>
       </c>
       <c r="F2" t="n">
         <v>1.560186404424365</v>
@@ -3124,13 +3124,13 @@
         <v>0.001077547841367073</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>45705.84976320706</v>
+        <v>45705.89335510421</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>45705.85018253134</v>
+        <v>45705.89374906244</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.0004193242824074074</v>
+        <v>0.0003939582291666666</v>
       </c>
       <c r="F3" t="n">
         <v>2.123391106782762</v>
@@ -3169,13 +3169,13 @@
         <v>0.001065543970799728</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>45705.85018254296</v>
+        <v>45705.89374908236</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>45705.85049548002</v>
+        <v>45705.89407468378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0003129370601851852</v>
+        <v>0.0003256014236111111</v>
       </c>
       <c r="F4" t="n">
         <v>2.921446485352182</v>
@@ -3214,13 +3214,13 @@
         <v>0.00102366060396217</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>45705.85049549164</v>
+        <v>45705.89407469509</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>45705.85058169482</v>
+        <v>45705.89415328242</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.620318287037038e-05</v>
+        <v>7.85873263888889e-05</v>
       </c>
       <c r="F5" t="n">
         <v>1.705241236872915</v>
@@ -3259,13 +3259,13 @@
         <v>0.001075322896257532</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>45705.85058171808</v>
+        <v>45705.89415328242</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>45705.85087449991</v>
+        <v>45705.89447907162</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0002927818287037037</v>
+        <v>0.0003257892013888889</v>
       </c>
       <c r="F6" t="n">
         <v>1.220382348447788</v>
